--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3579239.290267616</v>
+        <v>3576694.104194331</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>360.688538488851</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186277</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>159.5623709710791</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59.72683757586874</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>267.9612553036279</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>34.08172838941101</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>53.12040312879424</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>35.46527312190288</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.458642397731665</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.040488224226</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>129.0096827405964</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766865</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576176</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.16281301712667</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1198.223260609829</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>829.2607436694175</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>829.2607436694175</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>829.2607436694175</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>418.2748388798099</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1584.823100673951</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.549250954101</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406939</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.532782808694</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>786.546878019087</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>368.5830699172739</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018223</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018223</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785277</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661919</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858884</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035247</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="C8" t="n">
-        <v>494.150101163113</v>
+        <v>1274.158048767271</v>
       </c>
       <c r="D8" t="n">
-        <v>494.150101163113</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="E8" t="n">
-        <v>108.3618485648688</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F8" t="n">
-        <v>101.4163478156653</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>88.3689700924968</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>88.3689700924968</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>473.6237764655746</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1026.437034711774</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1658.154845695086</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>1579.896877817736</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904028</v>
+        <v>2127.058082584813</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1544.8259834174</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260215</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004798</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5836898399692</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9452297060877</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1548.79220526824</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>836.4056902455271</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.4695073176202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.3528679052845</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.4397743228914</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>1000.220690422341</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>1000.220690422341</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>1018.054155075767</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795857</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>954.2476448606602</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>785.3114619327533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>635.1948225204176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5279,49 +5279,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5501,34 +5501,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,58 +6218,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273906</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.560501433898</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1872.470231673185</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2529.355041543136</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>633.4413279836774</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>464.5051450557705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>464.5051450557705</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2316.650272731174</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2097.048807754114</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1807.973581098312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1553.289092892425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1263.871922855465</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.882371957447</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>815.0897928139171</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>150.8995423128888</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>484.8243144841094</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>980.1499206998682</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516145</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>95.5840502527391</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>95.5840502527391</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792912</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2529.355041543136</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400721</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>184.7035232280589</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7315,13 +7315,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>631.7012443408905</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408905</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783517</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>319.0741313911459</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>216.3441640494769</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>176.8008973295431</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>366.5683748125719</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-5.337348056301379e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.164270215632821e-12</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>142.9753202488375</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.2063328744018</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>52.01660326104815</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194132</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>116.6691671648106</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="11">
@@ -26314,46 +26314,46 @@
         <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481115</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.691380806</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>4.344331790858193e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682784</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682809</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682759</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682757</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682675</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682709</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682676</v>
+        <v>5677.536566682773</v>
       </c>
       <c r="N4" t="n">
+        <v>5677.536566682757</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="O4" t="n">
-        <v>5677.536566682721</v>
-      </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26500,7 +26500,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-123285.7356165251</v>
       </c>
       <c r="C6" t="n">
-        <v>466682.1435980193</v>
+        <v>466682.1435980197</v>
       </c>
       <c r="D6" t="n">
-        <v>310878.3375042246</v>
+        <v>310878.3375042247</v>
       </c>
       <c r="E6" t="n">
-        <v>-131242.1530581408</v>
+        <v>-131276.8909835762</v>
       </c>
       <c r="F6" t="n">
-        <v>639810.5383226656</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="G6" t="n">
-        <v>639810.5383226656</v>
+        <v>639775.8003972297</v>
       </c>
       <c r="H6" t="n">
-        <v>639810.5383226655</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="I6" t="n">
-        <v>639810.5383226653</v>
+        <v>639775.8003972296</v>
       </c>
       <c r="J6" t="n">
-        <v>463387.3191300727</v>
+        <v>463352.5812046367</v>
       </c>
       <c r="K6" t="n">
-        <v>639810.5383226657</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="L6" t="n">
-        <v>639810.5383226657</v>
+        <v>639775.8003972297</v>
       </c>
       <c r="M6" t="n">
-        <v>515602.027614607</v>
+        <v>515567.2896891712</v>
       </c>
       <c r="N6" t="n">
-        <v>639810.538322666</v>
+        <v>639775.8003972297</v>
       </c>
       <c r="O6" t="n">
-        <v>639810.5383226655</v>
+        <v>639775.8003972296</v>
       </c>
       <c r="P6" t="n">
-        <v>639810.5383226656</v>
+        <v>639775.8003972297</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209783</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450931</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>53.09563153194398</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27588,10 +27588,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272688988</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>164.3604017932781</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831822</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>97.31163646737969</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>84.41431250447928</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28059,16 +28059,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>152.2454787713244</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.1193802301919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.465120438763671e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.519424586149398e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130967</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>671.2522281007818</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32549,28 +32549,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>726.7533607666132</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>169.6252075171348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>184.4971006716333</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391487</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>169.6252075171348</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>402.4712572240675</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>328.1970178368775</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>245.091624262227</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>547.878815574799</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35267,10 +35267,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707519</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>528.6559836563374</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>584.6193268445949</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>23.94570355317081</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>57.65947400496659</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558154</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>23.94570355317081</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
